--- a/mySkills/translate/glossary/comment对应场景及规则.xlsx
+++ b/mySkills/translate/glossary/comment对应场景及规则.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17205"/>
+    <workbookView windowWidth="27945" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>comment</t>
   </si>
@@ -38,7 +38,7 @@
     <t>场景</t>
   </si>
   <si>
-    <t>翻译补充要点</t>
+    <t>规则</t>
   </si>
   <si>
     <t>文本类型自动判断</t>
@@ -92,16 +92,25 @@
     <t>buttonName</t>
   </si>
   <si>
-    <t>1.button 按钮</t>
-  </si>
-  <si>
-    <t>按钮⽂字，第⼀个单词⾸字⺟⼤写，尽量精简翻译</t>
+    <t>1.button 按钮
+2.词条中包含“是”/“否”</t>
+  </si>
+  <si>
+    <t>1.按钮⽂字，第⼀个单词⾸字⺟⼤写，尽量精简翻译
+2.属于界⾯交互，若词条为“是”/“否”，应翻译为Yes/No</t>
   </si>
   <si>
     <t>subTitle</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.界⾯功能分区的⼩标题</t>
     </r>
     <r>
@@ -154,7 +163,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>词条中包含了会产生歧义的词条</t>
+    <t>词条中包含了会产生歧义的词条：“分”</t>
   </si>
   <si>
     <t>此处表示为：分钟的‘分ʼ</t>
@@ -169,6 +178,9 @@
     <t>Date</t>
   </si>
   <si>
+    <t>词条中包含了会产生歧义的词条：“⽇”</t>
+  </si>
+  <si>
     <t>此处表示为：时间天数的‘⽇ʼ</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>Number</t>
   </si>
   <si>
+    <t>词条中包含了会产生歧义的词条：⼀/⼆/三/四/五/六</t>
+  </si>
+  <si>
     <t>此处表示为：数值的“⼀⼆三四五六”</t>
   </si>
   <si>
@@ -190,6 +205,9 @@
     <t>Boolean</t>
   </si>
   <si>
+    <t>词条中包含了会产生歧义的词条：“是”/“否”</t>
+  </si>
+  <si>
     <t>此处表示为：“是否”：逻辑判断翻译为True/False</t>
   </si>
   <si>
@@ -200,6 +218,9 @@
   </si>
   <si>
     <t>internal</t>
+  </si>
+  <si>
+    <t>词条中包含了会产生歧义的词条："状态"</t>
   </si>
   <si>
     <t>此处表示为："状态"：内部抽象的状体翻译为state，如图元态、状态前景</t>
@@ -1393,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1466,7 +1487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="27" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +1495,7 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1517,114 +1538,103 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/mySkills/translate/glossary/comment对应场景及规则.xlsx
+++ b/mySkills/translate/glossary/comment对应场景及规则.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>comment</t>
   </si>
@@ -66,7 +66,11 @@
 2.tab标题</t>
   </si>
   <si>
-    <t>作为标题/模块⽂字展示在界⾯上，每个单词⾸字⺟都要⼤写，精简翻译</t>
+    <t>- 英文翻译必须使用 Title Case（每个单词首字母都要大写）：
+  - 正确示例： "Tab Bar Title Settings"
+  - 错误示例1： "Tab bar title settings"（只第一个单词大写，错误）
+  - 错误示例2： "tab bar title settings"（全部小写，错误）
+- 精简翻译</t>
   </si>
   <si>
     <t>toolName</t>
@@ -76,17 +80,19 @@
 2.dialog的标题</t>
   </si>
   <si>
-    <t>⼯具名称/弹框的标题⽂字，每个单词⾸字⺟都要⼤写，精简翻译</t>
-  </si>
-  <si>
     <t>menuName</t>
   </si>
   <si>
     <t>1.⼯具菜单栏菜单按钮</t>
   </si>
   <si>
-    <t>作为菜单栏的按钮⽂字，第⼀个单词⾸字⺟⼤写，简写缩写，精简翻译，
-最⻓不要超过12个字符⻓度或参考英⽂翻译⻓度</t>
+    <t>- 英文翻译必须使用 Sentence case（只有第一个单词首字母大写，其他单词全部小写）：
+  - 正确示例： "Tab bar title settings"
+  - 错误示例1： "Tab Bar Title Settings"（每个单词都大写，错误）
+  - 错误示例2： "tab bar title settings"（全部小写，错误）
+- 字符数不要超过“词条”对应的值的字符数的2倍
+  - 可以使用通用的缩写，或者电力行业内的缩写，减少字符数
+  - 字符数最多不要超过12个</t>
   </si>
   <si>
     <t>buttonName</t>
@@ -96,8 +102,13 @@
 2.词条中包含“是”/“否”</t>
   </si>
   <si>
-    <t>1.按钮⽂字，第⼀个单词⾸字⺟⼤写，尽量精简翻译
-2.属于界⾯交互，若词条为“是”/“否”，应翻译为Yes/No</t>
+    <t>- 英文翻译必须使用 Sentence case（只有第一个单词首字母大写，其他单词全部小写）：
+  - 正确示例： "Tab bar title settings"
+  - 错误示例1： "Tab Bar Title Settings"（每个单词都大写，错误）
+  - 错误示例2： "tab bar title settings"（全部小写，错误）
+- 若词条为“是”/“否”，应翻译为Yes/No
+- 字符数不要超过“词条”对应的值的字符数的2倍
+  - 可以使用通用的缩写，或者电力行业内的缩写，减少字符数</t>
   </si>
   <si>
     <t>subTitle</t>
@@ -157,7 +168,20 @@
     </r>
   </si>
   <si>
-    <t>第⼀个单词⾸字⺟⼤写，尽量简洁翻译</t>
+    <t>- 英文翻译必须使用 Sentence case（只有第一个单词首字母大写，其他单词全部小写）：
+  - 正确示例： "Tab bar title settings"
+  - 错误示例1： "Tab Bar Title Settings"（每个单词都大写，错误）
+  - 错误示例2： "tab bar title settings"（全部小写，错误）
+- 【“是否” → Yes/No（界面文案）】
+  - 适用场景：对话框按钮、开关选项、用户可见的界面文本。
+  - 英文翻译要求：
+    - 使用 Yes / No（首字母大写）。
+    - 禁止使用 True / False 作为界面按钮文案。
+  - 示例：
+    - 正确： 提示框按钮 "是/否" → "Yes" / "No"
+    - 错误： 提示框按钮 "是/否" → "True" / "False"（布尔值风格，不适合界面）
+- 字符数不要超过“词条”对应的值的字符数的2倍
+  - 可以使用通用的缩写，或者电力行业内的缩写，减少字符数</t>
   </si>
   <si>
     <t>Time</t>
@@ -166,13 +190,27 @@
     <t>词条中包含了会产生歧义的词条：“分”</t>
   </si>
   <si>
-    <t>此处表示为：分钟的‘分ʼ</t>
+    <t>【分钟的“分”】
+含义：中文“分”表示时间单位“分钟”（minute）。
+英文翻译要求：
+- 单位一律翻译为 minute 或缩写 min，如："5 分" → "5 min"。
+- 禁止误译为开关“分合”的 open/close 或“除法”的 divide 等含义。
+示例：
+- 正确： "采样间隔（分）" → "Sampling interval (min)"
+- 错误： "采样间隔（分）" → "Sampling interval (open)"（把“分”理解成分合，错误）</t>
   </si>
   <si>
     <t>Abbr</t>
   </si>
   <si>
-    <t>此处表示为：电⼒开关分合的‘分ʼ</t>
+    <t>【开关分合的“分”】
+含义：中文“分”表示断开开关（open），与“合”(close) 相对。
+英文翻译要求：
+- 与“合”成对使用 open / close。
+- 禁止翻译为时间单位 minute/min，也禁止翻成 divide 等其他含义。
+示例：
+- 正确： "开关分合" → "Breaker open/close"
+- 错误： "开关分合" → "Breaker minute/close"（把“分”当分钟，错误）</t>
   </si>
   <si>
     <t>Date</t>
@@ -181,13 +219,27 @@
     <t>词条中包含了会产生歧义的词条：“⽇”</t>
   </si>
   <si>
-    <t>此处表示为：时间天数的‘⽇ʼ</t>
+    <t>【时间天数的“日”】
+含义：这里的“日”表示持续时间的天数（days）。
+英文翻译要求：
+- 单位统一翻译为 day / days，如："7 日" → "7 days"。
+- 禁止误解为星期中的“星期日/Sunday”。
+示例：
+- 正确： "保存时间（日）" → "Retention time (days)"
+- 错误： "保存时间（日）" → "Retention time (Sunday)"（把“日”当星期日，错误）</t>
   </si>
   <si>
     <t>DayOfWeek</t>
   </si>
   <si>
-    <t>此处表示为：周六周⽇的‘⽇ʼ</t>
+    <t>【星期几的“日”】
+含义：这里的“日”表示星期中的“星期日”（Sunday）。
+英文翻译要求：
+- 与星期场景一起使用时，“日”对应 Sunday 或缩写 Sun。
+- 禁止翻译成时间单位 day/days。
+示例：
+- 正确： "周日" → "Sunday"
+- 错误： "周日" → "7 days"（把“日”当持续天数，错误）</t>
   </si>
   <si>
     <t>Number</t>
@@ -196,10 +248,24 @@
     <t>词条中包含了会产生歧义的词条：⼀/⼆/三/四/五/六</t>
   </si>
   <si>
-    <t>此处表示为：数值的“⼀⼆三四五六”</t>
-  </si>
-  <si>
-    <t>此处表示为：星期的“⼀⼆三四五六”</t>
+    <t>【数值的“一二三四五六”】
+含义：这里的“一二三四五六”是纯数字 1–6，不表示星期几。
+英文翻译要求：
+- 翻译为阿拉伯数字 1/2/3/4/5/6。
+- 禁止翻译为 Monday–Saturday 或 Mon–Sat。
+示例：
+- 正确： "档位一/二/三" → "Level 1/2/3"
+- 错误： "档位一/二/三" → "Level Mon/Tue/Wed"（按星期翻译，错误）</t>
+  </si>
+  <si>
+    <t>【星期几的“一二三四五六”】
+含义：这里的“一二三四五六”表示星期一到星期六。
+英文翻译要求：
+- 按星期翻译为 Monday–Saturday（或 Mon–Sat），不要用数字 1–6。
+- 一致使用同一种风格（全英文或缩写）。
+示例：
+- 正确： "星期一/二/三" → "Monday/Tuesday/Wednesday"
+- 错误： "星期一/二/三" → "Day 1/2/3"（按数字翻译，错误）</t>
   </si>
   <si>
     <t>Boolean</t>
@@ -208,13 +274,27 @@
     <t>词条中包含了会产生歧义的词条：“是”/“否”</t>
   </si>
   <si>
-    <t>此处表示为：“是否”：逻辑判断翻译为True/False</t>
+    <t>【“是否” → True/False】
+适用场景：程序字段、接口参数、配置项等“逻辑型/布尔型”含义。
+英文翻译要求：
+- 仅使用 True / False（首字母大写，其余小写）。
+- 禁止使用 Yes/No 或 0/1 表示。
+示例：
+- 正确： "是否启用" 字段值 → true/false → "Enable: True / False"
+- 错误： "是否启用" → "Enable: Yes / No"（界面用法才用 Yes/No）</t>
   </si>
   <si>
     <t>UI</t>
   </si>
   <si>
-    <t>此处表示为：“是否”：界⾯交互翻译为Yes/No</t>
+    <t>【“是否” → Yes/No（界面文案）】
+适用场景：对话框按钮、开关选项、用户可见的界面文本。
+英文翻译要求：
+- 使用 Yes / No（首字母大写）。
+- 禁止使用 True / False 作为界面按钮文案。
+示例：
+- 正确： 提示框按钮 "是/否" → "Yes" / "No"
+- 错误： 提示框按钮 "是/否" → "True" / "False"（布尔值风格，不适合界面）</t>
   </si>
   <si>
     <t>internal</t>
@@ -223,25 +303,53 @@
     <t>词条中包含了会产生歧义的词条："状态"</t>
   </si>
   <si>
-    <t>此处表示为："状态"：内部抽象的状体翻译为state，如图元态、状态前景</t>
+    <t>【“状态” → state（内部描述）】
+适用场景：内部变量名、内部状态枚举，描述系统内部的状态，例如图元状态、状态前景。
+英文翻译要求：
+- 优先使用单词 state，如："设备状态" → "deviceState" 或 "device state"。
+- 禁止在此类内部字段中使用 status 代替 state。
+示例：
+- 正确： "图元状态" → "element state"
+- 错误： "图元状态" → "element status"（外部观察才用 status）</t>
   </si>
   <si>
     <t>external</t>
   </si>
   <si>
-    <t>此处表示为："状态"：外部观察的状态翻译为status，如状态量</t>
+    <t>【“状态” → status（外部观察）】
+适用场景：从外部看到的状态/结果，如告警状态、运行状态量。
+英文翻译要求：
+- 使用单词 status，如："告警状态" → "alarm status"。
+- 禁止在此类对外结果中使用 state 代替 status。
+示例：
+- 正确： "遥信状态量" → "status signal"
+- 错误： "遥信状态量" → "state signal"（不符合外部结果的常用表达）</t>
   </si>
   <si>
     <t>Upper</t>
   </si>
   <si>
-    <t>全部大写</t>
+    <t>【全词大写】
+含义：单元格中的英文翻译必须全部使用大写字母（ALL CAPS）。
+英文翻译要求：
+- 所有字母均为大写，如："ALARM"，"DC VOLTAGE"。
+- 禁止出现任何小写字母。
+示例：
+- 正确： "告警" → "ALARM"
+- 错误： "告警" → "Alarm" / "alarm"</t>
   </si>
   <si>
     <t>Lower</t>
   </si>
   <si>
-    <t>全部小写</t>
+    <t>【全词小写】
+含义：单元格中的英文翻译必须全部为小写字母。
+英文翻译要求：
+- 所有字母均为小写，如："offline"，"internal error"。
+- 禁止任何大写字母（包括单词首字母）。
+示例：
+- 正确： "离线" → "offline"
+- 错误： "离线" → "Offline" / "OFFLINE"</t>
   </si>
 </sst>
 </file>
@@ -880,6 +988,9 @@
           <etc:displayText val="2"/>
         </ext>
       </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1416,8 +1527,8 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1451,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:4">
+    <row r="3" ht="67.5" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1459,11 +1570,11 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:4">
+    <row r="4" ht="67.5" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1471,170 +1582,170 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="94.5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" ht="94.5" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" ht="202.5" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" ht="135" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" ht="15" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9" ht="135" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" ht="15" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="10" ht="135" spans="1:4">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" ht="135" spans="1:4">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" ht="135" spans="1:4">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" ht="135" spans="1:4">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" ht="135" spans="1:4">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" ht="135" spans="1:4">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" ht="135" spans="1:4">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" ht="135" spans="1:4">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" ht="135" spans="1:4">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="19" ht="135" spans="1:4">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
